--- a/YSteam開発資料まとめ/レビュー/レビュー指摘事項 試験項目書.xlsx
+++ b/YSteam開発資料まとめ/レビュー/レビュー指摘事項 試験項目書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\レビュー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031368D1-FF25-4C0C-A079-DCD2A1457770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD277A45-7C1D-44D5-9B50-D3896C5FB231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="1">
@@ -327,6 +327,122 @@
     </rPh>
     <rPh sb="19" eb="20">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面
+試験項目</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>シケンコウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッション情報が入っているかどうかの検証</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーの記録がない場合、ある場合で分けて正常に動くか試験項目を立てる</t>
+    <rPh sb="5" eb="7">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>シケンコウモク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング
+単体試験</t>
+    <rPh sb="6" eb="10">
+      <t>タンタイシケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング
+結合試験</t>
+    <rPh sb="6" eb="8">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキングの内容が問題なく取り出せているか？を検証
+→DBの内容とランキングの内容が合致しているか？</t>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ガッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→自分のDB（もしくは本番環境）とランキングのリストの内容が一致しているか？をチェックする</t>
+    <rPh sb="1" eb="3">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ホンバンカンキョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イッチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -851,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1019,8 +1135,12 @@
       <c r="B12" s="7">
         <v>4</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="E12" s="16"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -1030,8 +1150,12 @@
       <c r="B13" s="7">
         <v>5</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -1041,9 +1165,15 @@
       <c r="B14" s="7">
         <v>6</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="C14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>

--- a/YSteam開発資料まとめ/レビュー/レビュー指摘事項 試験項目書.xlsx
+++ b/YSteam開発資料まとめ/レビュー/レビュー指摘事項 試験項目書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\レビュー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD277A45-7C1D-44D5-9B50-D3896C5FB231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD6BE09-3AC2-4756-B08B-792DCD4A4373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="37">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="1">
@@ -197,13 +197,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DB設計書、画面設計書</t>
-    <rPh sb="2" eb="5">
-      <t>セッケイショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -443,6 +436,30 @@
     </rPh>
     <rPh sb="30" eb="32">
       <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■</t>
+  </si>
+  <si>
+    <t>1 'or '1'='1';--を実行</t>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目追加</t>
+    <rPh sb="0" eb="4">
+      <t>コウモクツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験項目書</t>
+    <rPh sb="0" eb="5">
+      <t>シケンコウモクショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -967,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -995,7 +1012,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E2" s="3"/>
       <c r="G2" s="14" t="s">
@@ -1011,7 +1028,7 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="17">
-        <v>44508</v>
+        <v>44522</v>
       </c>
       <c r="E3" s="6"/>
       <c r="G3" s="4" t="s">
@@ -1031,10 +1048,10 @@
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="8" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -1081,22 +1098,22 @@
         <v>1</v>
       </c>
       <c r="C9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="E9" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
@@ -1104,79 +1121,115 @@
         <v>2</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
         <v>3</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
         <v>4</v>
       </c>
       <c r="C12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="E12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
         <v>5</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
         <v>6</v>
       </c>
       <c r="C14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="E14" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="2:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
